--- a/temporary/チェックリスト_プロジェクト参入前.xlsx
+++ b/temporary/チェックリスト_プロジェクト参入前.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\draem\Dropbox\100_Documents\490_【仕事】転職＆退職\202102\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\other\temporary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C7F356-5DB5-4D80-9EAB-C453CA398B9D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54BB35A6-F3C5-403E-BDC3-DA3678021C81}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="26700" windowHeight="16440" activeTab="2" xr2:uid="{4766EE0F-731E-4860-9E19-7E5345AFF867}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="26700" windowHeight="16440" activeTab="1" xr2:uid="{4766EE0F-731E-4860-9E19-7E5345AFF867}"/>
   </bookViews>
   <sheets>
     <sheet name="プロジェクト参入前" sheetId="2" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="セットアップ事項_シンボリックリンク対象" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">セットアップ事項!$A$1:$E$60</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">セットアップ事項_シンボリックリンク対象!$A$1:$G$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">セットアップ事項!$A$1:$E$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">セットアップ事項_シンボリックリンク対象!$A$1:$G$36</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">プロジェクト参入前!$B$2:$F$58</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -82,6 +82,46 @@
         </r>
       </text>
     </comment>
+    <comment ref="C23" authorId="0" shapeId="0" xr:uid="{501012AB-A74E-401F-ABBB-EAA7CDBAE96A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">%userprofile%
+    _root
+        00_indirect
+            _workreport
+            _shortcut
+            _old
+        10_workitem
+            _education
+            _initial_setting
+            YYMMDD_CATEGORY_WORKITEM
+                10_input
+                20_output
+                90_sample
+                #memo_xxx.xlsm
+            200506_g3s_界磁詳細設計
+        20_dev_src
+        21_dev_doc
+        22_def_workspace
+        30_tool
+            hmac
+            hmac_local
+        90_other
+        #memo.xlsm
+        #object.xlsm
+        #timemng.xlsm
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -92,7 +132,7 @@
     <author>Tatsuya Endo</author>
   </authors>
   <commentList>
-    <comment ref="F21" authorId="0" shapeId="0" xr:uid="{F4922206-25AE-49C6-A98D-E0EA451E1B47}">
+    <comment ref="F26" authorId="0" shapeId="0" xr:uid="{F4922206-25AE-49C6-A98D-E0EA451E1B47}">
       <text>
         <r>
           <rPr>
@@ -112,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="210">
   <si>
     <t>タイミング</t>
     <phoneticPr fontId="4"/>
@@ -810,20 +850,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>workフォルダ追加</t>
-    <rPh sb="8" eb="10">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>★テンプレート検討</t>
-    <rPh sb="7" eb="9">
-      <t>ケントウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>visio</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -1198,6 +1224,98 @@
   </si>
   <si>
     <t>prg_exe</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Wordアドイン</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>×</t>
+  </si>
+  <si>
+    <t>Winmerge設定</t>
+    <rPh sb="8" eb="10">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>work(root)フォルダ追加</t>
+    <rPh sb="14" eb="16">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>秀丸マクロ追加</t>
+    <rPh sb="0" eb="2">
+      <t>ヒデマル</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>秀丸色設定インポート</t>
+    <rPh sb="0" eb="2">
+      <t>ヒデマル</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>X:\720_Evacuate_iTunes\MobileSync</t>
+  </si>
+  <si>
+    <t>X:\720_Evacuate_iTunes\Album Artwork</t>
+  </si>
+  <si>
+    <t>X:\720_Evacuate_iTunes\iTunes Media</t>
+  </si>
+  <si>
+    <t>%USERPROFILE%\Apple\MobileSync</t>
+  </si>
+  <si>
+    <t>%USERPROFILE%\Dropbox\100_Documents\210_【衣食住】家計\予算管理＠家族用.xlsx</t>
+  </si>
+  <si>
+    <t>%USERPROFILE%\Dropbox\000_Public\家計\予算管理＠家族用.xlsx</t>
+  </si>
+  <si>
+    <t>予算管理</t>
+    <rPh sb="0" eb="2">
+      <t>ヨサン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>%USERPROFILE%\Music\iTunes\Album Artwork</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>iTunes Album Artwork</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>%USERPROFILE%\Music\iTunes\iTunes Media</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>iTunes Album Media</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>iTunes Backup</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1265,7 +1383,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1275,6 +1393,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1370,7 +1494,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1425,6 +1549,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1628,13 +1758,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color rgb="FF000000"/>
         </left>
@@ -1644,6 +1767,13 @@
         <top style="thin">
           <color rgb="FF000000"/>
         </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color rgb="FF000000"/>
         </bottom>
@@ -1881,8 +2011,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{72048007-8526-42DE-A339-9D8654C4D34C}" name="テーブル223" displayName="テーブル223" ref="A1:E60" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="15" tableBorderDxfId="16" totalsRowBorderDxfId="14" headerRowCellStyle="標準 2">
-  <autoFilter ref="A1:E60" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{72048007-8526-42DE-A339-9D8654C4D34C}" name="テーブル223" displayName="テーブル223" ref="A1:E41" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15" totalsRowBorderDxfId="14" headerRowCellStyle="標準 2">
+  <autoFilter ref="A1:E41" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="2" xr3:uid="{D99A842B-D9B6-4C9F-9FA3-4DF6CE6BDD1C}" name="タイミング" dataDxfId="13" dataCellStyle="標準 2"/>
     <tableColumn id="1" xr3:uid="{60F4688E-5497-471B-8448-F31F20035DD5}" name="カテゴリ2" dataDxfId="12" dataCellStyle="標準 2"/>
@@ -3175,12 +3305,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C96AD35A-AD8A-4F44-9CB3-8A5AFF024648}">
-  <dimension ref="A1:J61"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="75" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.33203125" defaultRowHeight="18.75"/>
@@ -3302,7 +3432,7 @@
         <v>81</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="7"/>
@@ -3382,11 +3512,11 @@
         <v>107</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="1"/>
@@ -3402,7 +3532,7 @@
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="1"/>
@@ -3418,7 +3548,7 @@
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="1"/>
@@ -3434,7 +3564,7 @@
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="1"/>
@@ -3450,7 +3580,7 @@
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="1"/>
@@ -3473,13 +3603,15 @@
     <row r="20" spans="1:10">
       <c r="A20" s="6"/>
       <c r="B20" s="6" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D20" s="6"/>
-      <c r="E20" s="7"/>
+      <c r="E20" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="F20" s="2"/>
       <c r="G20" s="1"/>
       <c r="J20" s="1"/>
@@ -3490,12 +3622,10 @@
         <v>104</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D21" s="6"/>
-      <c r="E21" s="7" t="s">
-        <v>117</v>
-      </c>
+      <c r="E21" s="7"/>
       <c r="F21" s="2"/>
       <c r="G21" s="1"/>
       <c r="J21" s="1"/>
@@ -3503,14 +3633,14 @@
     <row r="22" spans="1:10">
       <c r="A22" s="6"/>
       <c r="B22" s="6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="1"/>
@@ -3519,23 +3649,25 @@
     <row r="23" spans="1:10">
       <c r="A23" s="6"/>
       <c r="B23" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>109</v>
+        <v>195</v>
       </c>
       <c r="D23" s="6"/>
-      <c r="E23" s="7" t="s">
-        <v>110</v>
-      </c>
+      <c r="E23" s="7"/>
       <c r="F23" s="2"/>
       <c r="G23" s="1"/>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="8"/>
+      <c r="B24" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>194</v>
+      </c>
       <c r="D24" s="6"/>
       <c r="E24" s="7"/>
       <c r="F24" s="2"/>
@@ -3544,8 +3676,12 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="8"/>
+      <c r="B25" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>196</v>
+      </c>
       <c r="D25" s="6"/>
       <c r="E25" s="7"/>
       <c r="F25" s="2"/>
@@ -3554,8 +3690,12 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="8"/>
+      <c r="B26" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>197</v>
+      </c>
       <c r="D26" s="6"/>
       <c r="E26" s="7"/>
       <c r="F26" s="2"/>
@@ -3713,193 +3853,68 @@
       <c r="J41" s="1"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="7"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
       <c r="F42" s="2"/>
       <c r="G42" s="1"/>
       <c r="J42" s="1"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="7"/>
       <c r="F43" s="2"/>
       <c r="G43" s="1"/>
       <c r="J43" s="1"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="7"/>
       <c r="F44" s="2"/>
       <c r="G44" s="1"/>
       <c r="J44" s="1"/>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="7"/>
       <c r="F45" s="2"/>
       <c r="G45" s="1"/>
       <c r="J45" s="1"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="8"/>
       <c r="F46" s="2"/>
       <c r="G46" s="1"/>
       <c r="J46" s="1"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="6"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="7"/>
       <c r="I47" s="1"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="10"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="7"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="10"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="7"/>
+    <row r="49" spans="8:9">
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="10"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="7"/>
+    <row r="50" spans="8:9">
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="6"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="7"/>
+    <row r="51" spans="8:9">
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="6"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="7"/>
+    <row r="52" spans="8:9">
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="6"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D53" s="6"/>
-      <c r="E53" s="7"/>
+    <row r="53" spans="8:9">
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="1:9" ht="37.5">
-      <c r="A54" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B54" s="9"/>
-      <c r="C54" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E54" s="7"/>
+    <row r="54" spans="8:9">
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="1:9">
-      <c r="A55" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B55" s="9"/>
-      <c r="C55" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E55" s="7"/>
+    <row r="55" spans="8:9">
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="1:9">
-      <c r="A56" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B56" s="9"/>
-      <c r="C56" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E56" s="7"/>
+    <row r="56" spans="8:9">
       <c r="H56" s="1" t="s">
         <v>74</v>
       </c>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="1:9">
-      <c r="A57" s="6"/>
-      <c r="B57" s="9"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="7"/>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58" s="6"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="7"/>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="6"/>
-      <c r="B59" s="9"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="7"/>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="11"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="13"/>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="3"/>
-  <conditionalFormatting sqref="A2:E59">
+  <conditionalFormatting sqref="A2:E41">
     <cfRule type="expression" dxfId="2" priority="4">
       <formula>$D2="★"</formula>
     </cfRule>
@@ -3911,7 +3926,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D60" xr:uid="{BE40300F-8C6E-4CFA-9EDB-706E90C5E4C6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D23:D41 D2:D22" xr:uid="{BE40300F-8C6E-4CFA-9EDB-706E90C5E4C6}">
       <formula1>"★,○,-"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3926,13 +3941,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E542800-9A9D-462F-B766-66624AB39BBF}">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -3948,42 +3963,42 @@
     <row r="1" spans="1:7">
       <c r="A1" s="18"/>
       <c r="B1" s="18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="16" t="s">
-        <v>113</v>
+        <v>209</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>78</v>
+        <v>193</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>142</v>
+        <v>201</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>121</v>
+        <v>198</v>
       </c>
       <c r="G2" s="16" t="str">
         <f>IF(B2&lt;&gt;"○","",
@@ -3992,605 +4007,686 @@
 "mklink "&amp;IF(D2="folder","/d ","")&amp;""""&amp;E2&amp;""" """&amp;F2&amp;"""",
 "powershell ""$s=(New-Object -COM WScript.Shell).CreateShortcut('"&amp;E2&amp;".lnk');$s.TargetPath='"&amp;F2&amp;"';$s.Save()"""
 ))</f>
-        <v>mklink /d "%USERPROFILE%\AppData\Roaming\Microsoft\AddIns" "C:\codes\vba\excel\AddIns"</v>
+        <v/>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="16" t="s">
-        <v>147</v>
+        <v>206</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>78</v>
+        <v>193</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>137</v>
+        <v>205</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>126</v>
+        <v>199</v>
       </c>
       <c r="G3" s="16" t="str">
-        <f t="shared" ref="G3:G35" si="0">IF(B3&lt;&gt;"○","",
+        <f>IF(B3&lt;&gt;"○","",
 IF(
 C3="symbolic",
 "mklink "&amp;IF(D3="folder","/d ","")&amp;""""&amp;E3&amp;""" """&amp;F3&amp;"""",
 "powershell ""$s=(New-Object -COM WScript.Shell).CreateShortcut('"&amp;E3&amp;".lnk');$s.TargetPath='"&amp;F3&amp;"';$s.Save()"""
 ))</f>
-        <v>mklink /d "C:\prg_exe\Hidemaru\macro" "C:\codes\hmac"</v>
+        <v/>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="16" t="s">
-        <v>148</v>
+        <v>208</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>78</v>
+        <v>193</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>140</v>
+        <v>207</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>129</v>
+        <v>200</v>
       </c>
       <c r="G4" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>mklink /d "C:\prg_exe\Hidemaru\setting" "C:\other\setting\hidemaru"</v>
+        <f>IF(B4&lt;&gt;"○","",
+IF(
+C4="symbolic",
+"mklink "&amp;IF(D4="folder","/d ","")&amp;""""&amp;E4&amp;""" """&amp;F4&amp;"""",
+"powershell ""$s=(New-Object -COM WScript.Shell).CreateShortcut('"&amp;E4&amp;".lnk');$s.TargetPath='"&amp;F4&amp;"';$s.Save()"""
+))</f>
+        <v/>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="16" t="s">
-        <v>150</v>
+        <v>204</v>
       </c>
       <c r="B5" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="G5" s="16" t="str">
+        <f>IF(B5&lt;&gt;"○","",
+IF(
+C5="symbolic",
+"mklink "&amp;IF(D5="folder","/d ","")&amp;""""&amp;E5&amp;""" """&amp;F5&amp;"""",
+"powershell ""$s=(New-Object -COM WScript.Shell).CreateShortcut('"&amp;E5&amp;".lnk');$s.TargetPath='"&amp;F5&amp;"';$s.Save()"""
+))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="D5" s="17" t="s">
+      <c r="C6" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="G6" s="16" t="str">
+        <f>IF(B6&lt;&gt;"○","",
+IF(
+C6="symbolic",
+"mklink "&amp;IF(D6="folder","/d ","")&amp;""""&amp;E6&amp;""" """&amp;F6&amp;"""",
+"powershell ""$s=(New-Object -COM WScript.Shell).CreateShortcut('"&amp;E6&amp;".lnk');$s.TargetPath='"&amp;F6&amp;"';$s.Save()"""
+))</f>
+        <v>mklink /d "%USERPROFILE%\AppData\Roaming\Microsoft\AddIns" "C:\codes\vba\excel\AddIns"</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="16" t="str">
+        <f>IF(B7&lt;&gt;"○","",
+IF(
+C7="symbolic",
+"mklink "&amp;IF(D7="folder","/d ","")&amp;""""&amp;E7&amp;""" """&amp;F7&amp;"""",
+"powershell ""$s=(New-Object -COM WScript.Shell).CreateShortcut('"&amp;E7&amp;".lnk');$s.TargetPath='"&amp;F7&amp;"';$s.Save()"""
+))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="E5" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="G5" s="16" t="str">
+      <c r="B8" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="G8" s="16" t="str">
+        <f t="shared" ref="G8:G36" si="0">IF(B8&lt;&gt;"○","",
+IF(
+C8="symbolic",
+"mklink "&amp;IF(D8="folder","/d ","")&amp;""""&amp;E8&amp;""" """&amp;F8&amp;"""",
+"powershell ""$s=(New-Object -COM WScript.Shell).CreateShortcut('"&amp;E8&amp;".lnk');$s.TargetPath='"&amp;F8&amp;"';$s.Save()"""
+))</f>
+        <v>mklink /d "C:\prg_exe\Hidemaru\macro" "C:\codes\hmac"</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="G9" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="G10" s="16" t="str">
         <f t="shared" si="0"/>
         <v>mklink "C:\prg_exe\Vim\_gvimrc" "C:\codes\vim\_gvimrc"</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6" s="17" t="s">
+    <row r="11" spans="1:7">
+      <c r="A11" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="G6" s="16" t="str">
+      <c r="C11" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" s="16" t="str">
         <f t="shared" si="0"/>
         <v>mklink "C:\prg_exe\Vim\_vimrc" "C:\codes\vim\_vimrc"</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="B7" s="17" t="s">
+    <row r="12" spans="1:7">
+      <c r="A12" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="B12" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="G7" s="16" t="str">
+      <c r="C12" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="G12" s="16" t="str">
         <f t="shared" si="0"/>
         <v>mklink "C:\prg_exe\Vim\_plugins_user\bufferlist.vim\plugin\bufferlist.vim" "C:\codes\vim\_plugins_user\bufferlist.vim\plugin\bufferlist.vim"</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="B8" s="17" t="s">
+    <row r="13" spans="1:7">
+      <c r="A13" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="G8" s="16" t="str">
+      <c r="C13" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="G13" s="16" t="str">
         <f t="shared" si="0"/>
         <v>mklink "C:\prg_exe\Vim\_plugins_user\FavEx\plugin\favex.vim" "C:\codes\vim\_plugins_user\FavEx\plugin\favex.vim"</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="B9" s="17" t="s">
+    <row r="14" spans="1:7">
+      <c r="A14" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="B14" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="G9" s="16" t="str">
+      <c r="C14" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="G14" s="16" t="str">
         <f t="shared" si="0"/>
         <v>mklink "C:\prg_exe\Vim\_plugins_user\FavEx\favlist" "C:\codes\vim\_plugins_user\FavEx\favlist"</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="B10" s="17" t="s">
+    <row r="15" spans="1:7">
+      <c r="A15" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="B15" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="G10" s="16" t="str">
+      <c r="C15" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="G15" s="16" t="str">
         <f t="shared" si="0"/>
         <v>mklink "C:\prg_exe\Vim\_plugins_user\jellybeans.vim\colors\jellybeans.vim" "C:\codes\vim\_plugins_user\jellybeans.vim\colors\jellybeans.vim"</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="B11" s="17" t="s">
+    <row r="16" spans="1:7">
+      <c r="A16" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="B16" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="G11" s="16" t="str">
+      <c r="C16" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="G16" s="16" t="str">
         <f t="shared" si="0"/>
         <v>mklink "C:\prg_exe\Vim\_plugins_user\mark.vim\plugin\mark.vim" "C:\codes\vim\_plugins_user\mark.vim\plugin\mark.vim"</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="B12" s="17" t="s">
+    <row r="17" spans="1:7">
+      <c r="A17" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="B17" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="G12" s="16" t="str">
+      <c r="C17" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="G17" s="16" t="str">
         <f t="shared" si="0"/>
         <v>mklink "C:\prg_exe\Vim\_plugins_user\qfixapp\autoload\qfixgrep.vim" "C:\codes\vim\_plugins_user\qfixapp\autoload\qfixgrep.vim"</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="B13" s="17" t="s">
+    <row r="18" spans="1:7">
+      <c r="A18" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="B18" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="G13" s="16" t="str">
+      <c r="C18" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="G18" s="16" t="str">
         <f t="shared" si="0"/>
         <v>mklink "%USERPROFILE%\AppData\Local\Packages\Microsoft.WindowsTerminal_8wekyb3d8bbwe\LocalState\settings.json" "C:\codes\wsl2\settings.json"</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="B14" s="17" t="s">
+    <row r="19" spans="1:7">
+      <c r="A19" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="B19" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="G14" s="16" t="str">
-        <f>IF(B14&lt;&gt;"○","",
+      <c r="C19" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="G19" s="16" t="str">
+        <f>IF(B19&lt;&gt;"○","",
 IF(
-C14="symbolic",
-"mklink "&amp;IF(D14="folder","/d ","")&amp;""""&amp;E14&amp;""" """&amp;F14&amp;"""",
-"powershell ""$s=(New-Object -COM WScript.Shell).CreateShortcut('"&amp;E14&amp;".lnk');$s.TargetPath='"&amp;F14&amp;"';$s.Save()"""
+C19="symbolic",
+"mklink "&amp;IF(D19="folder","/d ","")&amp;""""&amp;E19&amp;""" """&amp;F19&amp;"""",
+"powershell ""$s=(New-Object -COM WScript.Shell).CreateShortcut('"&amp;E19&amp;".lnk');$s.TargetPath='"&amp;F19&amp;"';$s.Save()"""
 ))</f>
         <v>mklink /d "C:\prg_exe" "%USERPROFILE%\_root\90_other\prg_exe"</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="16" t="s">
+    <row r="20" spans="1:7">
+      <c r="A20" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B20" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="G15" s="16" t="str">
+      <c r="C20" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G20" s="16" t="str">
         <f t="shared" si="0"/>
         <v>mklink /d "C:\codes" "%USERPROFILE%\_root\30_tool"</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="16" t="s">
+    <row r="21" spans="1:7">
+      <c r="A21" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B21" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="G16" s="16" t="str">
+      <c r="C21" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="G21" s="16" t="str">
         <f t="shared" si="0"/>
         <v>mklink /d "C:\other" "%USERPROFILE%\_root\90_other"</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="16" t="s">
+    <row r="22" spans="1:7">
+      <c r="A22" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B22" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="G17" s="16" t="str">
+      <c r="C22" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="G22" s="16" t="str">
         <f t="shared" si="0"/>
         <v>mklink /d "C:\root" "%USERPROFILE%\_root"</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="B18" s="17" t="s">
+    <row r="23" spans="1:7">
+      <c r="A23" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B23" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C23" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="G18" s="16" t="str">
+      <c r="F23" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="G23" s="16" t="str">
         <f t="shared" si="0"/>
         <v>powershell "$s=(New-Object -COM WScript.Shell).CreateShortcut('%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup\PopupTimeSignal.vbs.lnk');$s.TargetPath='C:\codes\vbs\tools\win\other\PopupTimeSignal.vbs';$s.Save()"</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="B19" s="17" t="s">
+    <row r="24" spans="1:7">
+      <c r="A24" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="B24" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="G19" s="16" t="str">
+      <c r="C24" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="G24" s="16" t="str">
         <f t="shared" si="0"/>
         <v>powershell "$s=(New-Object -COM WScript.Shell).CreateShortcut('%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\100_【Doc】GVim (&amp;V).lnk');$s.TargetPath='C:\prg_exe\Vim\gvim.exe';$s.Save()"</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="B20" s="17" t="s">
+    <row r="25" spans="1:7">
+      <c r="A25" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="B25" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="G20" s="16" t="str">
+      <c r="C25" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="G25" s="16" t="str">
         <f t="shared" si="0"/>
         <v>powershell "$s=(New-Object -COM WScript.Shell).CreateShortcut('%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\101_【Doc】秀丸 (&amp;H).lnk');$s.TargetPath='C:\prg_exe\Hidemaru\Hidemaru.exe';$s.Save()"</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="B21" s="17" t="s">
+    <row r="26" spans="1:7">
+      <c r="A26" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="B26" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="G21" s="16" t="str">
+      <c r="C26" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="G26" s="16" t="str">
         <f t="shared" si="0"/>
         <v>powershell "$s=(New-Object -COM WScript.Shell).CreateShortcut('%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\120_【Doc】Excel (&amp;E).lnk');$s.TargetPath='C:\Program Files (x86)\Microsoft Office\root\Office16\EXCEL.EXE';$s.Save()"</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="B22" s="17" t="s">
+    <row r="27" spans="1:7">
+      <c r="A27" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="B27" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C22" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="G22" s="16" t="str">
+      <c r="C27" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="G27" s="16" t="str">
         <f t="shared" si="0"/>
         <v>powershell "$s=(New-Object -COM WScript.Shell).CreateShortcut('%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\123_【Doc】Word.lnk');$s.TargetPath='C:\Program Files (x86)\Microsoft Office\root\Office16\WINWORD.EXE';$s.Save()"</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="B23" s="17" t="s">
+    <row r="28" spans="1:7">
+      <c r="A28" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="B28" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C23" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="G23" s="16" t="str">
+      <c r="C28" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="G28" s="16" t="str">
         <f t="shared" si="0"/>
         <v>powershell "$s=(New-Object -COM WScript.Shell).CreateShortcut('%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\122_【Doc】Visio.lnk');$s.TargetPath='C:\Program Files (x86)\Microsoft Office\root\Office16\VISIO.EXE';$s.Save()"</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="B24" s="17" t="s">
+    <row r="29" spans="1:7">
+      <c r="A29" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="B29" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C24" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="G24" s="16" t="str">
+      <c r="C29" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="G29" s="16" t="str">
         <f t="shared" si="0"/>
         <v>powershell "$s=(New-Object -COM WScript.Shell).CreateShortcut('%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\110_【Doc】WinMerge.lnk');$s.TargetPath='C:\prg_exe\WinMerge\WinMergeU.exe';$s.Save()"</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="16"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="16"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="16"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="16"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="16"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -4665,21 +4761,34 @@
         <v/>
       </c>
     </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="16"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G35" xr:uid="{F71283D4-3044-457E-83FB-FAD66A168000}"/>
+  <autoFilter ref="A1:G36" xr:uid="{F71283D4-3044-457E-83FB-FAD66A168000}"/>
   <phoneticPr fontId="3"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D25:D35 D2:D24" xr:uid="{60CC322B-9EB3-4D89-B01B-A544B01530D7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D30:D36 D2:D29" xr:uid="{60CC322B-9EB3-4D89-B01B-A544B01530D7}">
       <formula1>"file,folder"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C25:C35 C2:C24" xr:uid="{0A17BE79-7904-4D38-BCC0-4D07C77549F3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C30:C36 C2:C29" xr:uid="{0A17BE79-7904-4D38-BCC0-4D07C77549F3}">
       <formula1>"symbolic,shortcut"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25:B35 B2:B24" xr:uid="{7FB2DFF1-E232-4BC5-AEE3-9BB8342879DC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30:B36 B2:B29" xr:uid="{7FB2DFF1-E232-4BC5-AEE3-9BB8342879DC}">
       <formula1>"○,×"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/temporary/チェックリスト_プロジェクト参入前.xlsx
+++ b/temporary/チェックリスト_プロジェクト参入前.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\other\temporary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54BB35A6-F3C5-403E-BDC3-DA3678021C81}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281B5048-2717-4B93-80B3-0E550C619BD5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="26700" windowHeight="16440" activeTab="1" xr2:uid="{4766EE0F-731E-4860-9E19-7E5345AFF867}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="26700" windowHeight="16440" activeTab="2" xr2:uid="{4766EE0F-731E-4860-9E19-7E5345AFF867}"/>
   </bookViews>
   <sheets>
     <sheet name="プロジェクト参入前" sheetId="2" r:id="rId1"/>
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="210">
   <si>
     <t>タイミング</t>
     <phoneticPr fontId="4"/>
@@ -1563,58 +1563,174 @@
   </cellStyles>
   <dxfs count="27">
     <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
       <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="游ゴシック"/>
+        <scheme val="minor"/>
       </font>
       <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1814,174 +1930,58 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="游ゴシック"/>
-        <scheme val="minor"/>
+        <color rgb="FFFF0000"/>
       </font>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1997,28 +1997,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AB9C080C-16AB-477C-B8B1-DFF22A258005}" name="テーブル22" displayName="テーブル22" ref="B2:F58" totalsRowShown="0" headerRowDxfId="26" headerRowBorderDxfId="25" tableBorderDxfId="24" totalsRowBorderDxfId="23" headerRowCellStyle="標準 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AB9C080C-16AB-477C-B8B1-DFF22A258005}" name="テーブル22" displayName="テーブル22" ref="B2:F58" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18" totalsRowBorderDxfId="17" headerRowCellStyle="標準 2">
   <autoFilter ref="B2:F58" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn id="2" xr3:uid="{9BCD8C79-75B0-46CB-81EA-08210BDEDA51}" name="タイミング" dataDxfId="22" dataCellStyle="標準 2"/>
-    <tableColumn id="1" xr3:uid="{71C1CE89-BF1F-4D36-A869-3F9289BC65D3}" name="カテゴリ2" dataDxfId="21" dataCellStyle="標準 2"/>
-    <tableColumn id="3" xr3:uid="{A41F6F91-C980-4FDA-ABE7-D7A10483C780}" name="列1" dataDxfId="20" dataCellStyle="標準 2"/>
-    <tableColumn id="14" xr3:uid="{E0871752-EE33-4AED-9D38-9217736E3632}" name="状態" dataDxfId="19" dataCellStyle="標準 2"/>
-    <tableColumn id="15" xr3:uid="{B188B094-0E8D-4988-81A9-B05DD2BB8958}" name="備考" dataDxfId="18" dataCellStyle="標準 2"/>
+    <tableColumn id="2" xr3:uid="{9BCD8C79-75B0-46CB-81EA-08210BDEDA51}" name="タイミング" dataDxfId="16" dataCellStyle="標準 2"/>
+    <tableColumn id="1" xr3:uid="{71C1CE89-BF1F-4D36-A869-3F9289BC65D3}" name="カテゴリ2" dataDxfId="15" dataCellStyle="標準 2"/>
+    <tableColumn id="3" xr3:uid="{A41F6F91-C980-4FDA-ABE7-D7A10483C780}" name="列1" dataDxfId="14" dataCellStyle="標準 2"/>
+    <tableColumn id="14" xr3:uid="{E0871752-EE33-4AED-9D38-9217736E3632}" name="状態" dataDxfId="13" dataCellStyle="標準 2"/>
+    <tableColumn id="15" xr3:uid="{B188B094-0E8D-4988-81A9-B05DD2BB8958}" name="備考" dataDxfId="12" dataCellStyle="標準 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{72048007-8526-42DE-A339-9D8654C4D34C}" name="テーブル223" displayName="テーブル223" ref="A1:E41" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15" totalsRowBorderDxfId="14" headerRowCellStyle="標準 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{72048007-8526-42DE-A339-9D8654C4D34C}" name="テーブル223" displayName="テーブル223" ref="A1:E41" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5" headerRowCellStyle="標準 2">
   <autoFilter ref="A1:E41" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn id="2" xr3:uid="{D99A842B-D9B6-4C9F-9FA3-4DF6CE6BDD1C}" name="タイミング" dataDxfId="13" dataCellStyle="標準 2"/>
-    <tableColumn id="1" xr3:uid="{60F4688E-5497-471B-8448-F31F20035DD5}" name="カテゴリ2" dataDxfId="12" dataCellStyle="標準 2"/>
-    <tableColumn id="3" xr3:uid="{C969242E-1AB3-48E9-BA43-2BB0F4826FEC}" name="列1" dataDxfId="11" dataCellStyle="標準 2"/>
-    <tableColumn id="14" xr3:uid="{21D8CC79-387E-4056-8934-97B278BC68CD}" name="状態" dataDxfId="10" dataCellStyle="標準 2"/>
-    <tableColumn id="15" xr3:uid="{68902BC1-ED87-4EA6-941E-472D4B2FD768}" name="備考" dataDxfId="9" dataCellStyle="標準 2"/>
+    <tableColumn id="2" xr3:uid="{D99A842B-D9B6-4C9F-9FA3-4DF6CE6BDD1C}" name="タイミング" dataDxfId="4" dataCellStyle="標準 2"/>
+    <tableColumn id="1" xr3:uid="{60F4688E-5497-471B-8448-F31F20035DD5}" name="カテゴリ2" dataDxfId="3" dataCellStyle="標準 2"/>
+    <tableColumn id="3" xr3:uid="{C969242E-1AB3-48E9-BA43-2BB0F4826FEC}" name="列1" dataDxfId="2" dataCellStyle="標準 2"/>
+    <tableColumn id="14" xr3:uid="{21D8CC79-387E-4056-8934-97B278BC68CD}" name="状態" dataDxfId="1" dataCellStyle="標準 2"/>
+    <tableColumn id="15" xr3:uid="{68902BC1-ED87-4EA6-941E-472D4B2FD768}" name="備考" dataDxfId="0" dataCellStyle="標準 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3269,24 +3269,24 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="B3:B44 D3:F44 B45:F57">
-    <cfRule type="expression" dxfId="8" priority="4">
+    <cfRule type="expression" dxfId="26" priority="4">
       <formula>$E3="★"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="5">
+    <cfRule type="expression" dxfId="25" priority="5">
       <formula>$E3="-"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="24" priority="6">
       <formula>$E3="○"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C44">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="23" priority="1">
       <formula>$E3="★"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="22" priority="2">
       <formula>$E3="-"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="21" priority="3">
       <formula>$E3="○"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3307,10 +3307,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C96AD35A-AD8A-4F44-9CB3-8A5AFF024648}">
   <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.33203125" defaultRowHeight="18.75"/>
@@ -3352,7 +3352,9 @@
       <c r="C2" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="6"/>
+      <c r="D2" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="E2" s="7" t="s">
         <v>98</v>
       </c>
@@ -3367,7 +3369,9 @@
       <c r="C3" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="E3" s="7" t="s">
         <v>99</v>
       </c>
@@ -3382,7 +3386,9 @@
       <c r="C4" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="E4" s="7"/>
       <c r="F4" s="2"/>
       <c r="G4" s="1"/>
@@ -3395,7 +3401,9 @@
       <c r="C5" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="E5" s="7"/>
       <c r="F5" s="2"/>
       <c r="G5" s="1"/>
@@ -3915,13 +3923,13 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="A2:E41">
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="11" priority="4">
       <formula>$D2="★"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="5">
+    <cfRule type="expression" dxfId="10" priority="5">
       <formula>$D2="-"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="6">
+    <cfRule type="expression" dxfId="9" priority="6">
       <formula>$D2="○"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3943,11 +3951,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E542800-9A9D-462F-B766-66624AB39BBF}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -4001,7 +4009,7 @@
         <v>198</v>
       </c>
       <c r="G2" s="16" t="str">
-        <f>IF(B2&lt;&gt;"○","",
+        <f t="shared" ref="G2:G7" si="0">IF(B2&lt;&gt;"○","",
 IF(
 C2="symbolic",
 "mklink "&amp;IF(D2="folder","/d ","")&amp;""""&amp;E2&amp;""" """&amp;F2&amp;"""",
@@ -4030,12 +4038,7 @@
         <v>199</v>
       </c>
       <c r="G3" s="16" t="str">
-        <f>IF(B3&lt;&gt;"○","",
-IF(
-C3="symbolic",
-"mklink "&amp;IF(D3="folder","/d ","")&amp;""""&amp;E3&amp;""" """&amp;F3&amp;"""",
-"powershell ""$s=(New-Object -COM WScript.Shell).CreateShortcut('"&amp;E3&amp;".lnk');$s.TargetPath='"&amp;F3&amp;"';$s.Save()"""
-))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -4059,12 +4062,7 @@
         <v>200</v>
       </c>
       <c r="G4" s="16" t="str">
-        <f>IF(B4&lt;&gt;"○","",
-IF(
-C4="symbolic",
-"mklink "&amp;IF(D4="folder","/d ","")&amp;""""&amp;E4&amp;""" """&amp;F4&amp;"""",
-"powershell ""$s=(New-Object -COM WScript.Shell).CreateShortcut('"&amp;E4&amp;".lnk');$s.TargetPath='"&amp;F4&amp;"';$s.Save()"""
-))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -4088,12 +4086,7 @@
         <v>203</v>
       </c>
       <c r="G5" s="16" t="str">
-        <f>IF(B5&lt;&gt;"○","",
-IF(
-C5="symbolic",
-"mklink "&amp;IF(D5="folder","/d ","")&amp;""""&amp;E5&amp;""" """&amp;F5&amp;"""",
-"powershell ""$s=(New-Object -COM WScript.Shell).CreateShortcut('"&amp;E5&amp;".lnk');$s.TargetPath='"&amp;F5&amp;"';$s.Save()"""
-))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -4117,12 +4110,7 @@
         <v>119</v>
       </c>
       <c r="G6" s="16" t="str">
-        <f>IF(B6&lt;&gt;"○","",
-IF(
-C6="symbolic",
-"mklink "&amp;IF(D6="folder","/d ","")&amp;""""&amp;E6&amp;""" """&amp;F6&amp;"""",
-"powershell ""$s=(New-Object -COM WScript.Shell).CreateShortcut('"&amp;E6&amp;".lnk');$s.TargetPath='"&amp;F6&amp;"';$s.Save()"""
-))</f>
+        <f t="shared" si="0"/>
         <v>mklink /d "%USERPROFILE%\AppData\Roaming\Microsoft\AddIns" "C:\codes\vba\excel\AddIns"</v>
       </c>
     </row>
@@ -4142,12 +4130,7 @@
       <c r="E7" s="21"/>
       <c r="F7" s="21"/>
       <c r="G7" s="16" t="str">
-        <f>IF(B7&lt;&gt;"○","",
-IF(
-C7="symbolic",
-"mklink "&amp;IF(D7="folder","/d ","")&amp;""""&amp;E7&amp;""" """&amp;F7&amp;"""",
-"powershell ""$s=(New-Object -COM WScript.Shell).CreateShortcut('"&amp;E7&amp;".lnk');$s.TargetPath='"&amp;F7&amp;"';$s.Save()"""
-))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -4171,7 +4154,7 @@
         <v>124</v>
       </c>
       <c r="G8" s="16" t="str">
-        <f t="shared" ref="G8:G36" si="0">IF(B8&lt;&gt;"○","",
+        <f t="shared" ref="G8:G36" si="1">IF(B8&lt;&gt;"○","",
 IF(
 C8="symbolic",
 "mklink "&amp;IF(D8="folder","/d ","")&amp;""""&amp;E8&amp;""" """&amp;F8&amp;"""",
@@ -4200,7 +4183,7 @@
         <v>127</v>
       </c>
       <c r="G9" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4224,7 +4207,7 @@
         <v>117</v>
       </c>
       <c r="G10" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>mklink "C:\prg_exe\Vim\_gvimrc" "C:\codes\vim\_gvimrc"</v>
       </c>
     </row>
@@ -4248,7 +4231,7 @@
         <v>118</v>
       </c>
       <c r="G11" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>mklink "C:\prg_exe\Vim\_vimrc" "C:\codes\vim\_vimrc"</v>
       </c>
     </row>
@@ -4272,7 +4255,7 @@
         <v>120</v>
       </c>
       <c r="G12" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>mklink "C:\prg_exe\Vim\_plugins_user\bufferlist.vim\plugin\bufferlist.vim" "C:\codes\vim\_plugins_user\bufferlist.vim\plugin\bufferlist.vim"</v>
       </c>
     </row>
@@ -4296,7 +4279,7 @@
         <v>121</v>
       </c>
       <c r="G13" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>mklink "C:\prg_exe\Vim\_plugins_user\FavEx\plugin\favex.vim" "C:\codes\vim\_plugins_user\FavEx\plugin\favex.vim"</v>
       </c>
     </row>
@@ -4320,7 +4303,7 @@
         <v>122</v>
       </c>
       <c r="G14" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>mklink "C:\prg_exe\Vim\_plugins_user\FavEx\favlist" "C:\codes\vim\_plugins_user\FavEx\favlist"</v>
       </c>
     </row>
@@ -4344,7 +4327,7 @@
         <v>123</v>
       </c>
       <c r="G15" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>mklink "C:\prg_exe\Vim\_plugins_user\jellybeans.vim\colors\jellybeans.vim" "C:\codes\vim\_plugins_user\jellybeans.vim\colors\jellybeans.vim"</v>
       </c>
     </row>
@@ -4368,7 +4351,7 @@
         <v>125</v>
       </c>
       <c r="G16" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>mklink "C:\prg_exe\Vim\_plugins_user\mark.vim\plugin\mark.vim" "C:\codes\vim\_plugins_user\mark.vim\plugin\mark.vim"</v>
       </c>
     </row>
@@ -4392,7 +4375,7 @@
         <v>126</v>
       </c>
       <c r="G17" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>mklink "C:\prg_exe\Vim\_plugins_user\qfixapp\autoload\qfixgrep.vim" "C:\codes\vim\_plugins_user\qfixapp\autoload\qfixgrep.vim"</v>
       </c>
     </row>
@@ -4416,7 +4399,7 @@
         <v>128</v>
       </c>
       <c r="G18" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>mklink "%USERPROFILE%\AppData\Local\Packages\Microsoft.WindowsTerminal_8wekyb3d8bbwe\LocalState\settings.json" "C:\codes\wsl2\settings.json"</v>
       </c>
     </row>
@@ -4469,7 +4452,7 @@
         <v>188</v>
       </c>
       <c r="G20" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>mklink /d "C:\codes" "%USERPROFILE%\_root\30_tool"</v>
       </c>
     </row>
@@ -4493,7 +4476,7 @@
         <v>187</v>
       </c>
       <c r="G21" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>mklink /d "C:\other" "%USERPROFILE%\_root\90_other"</v>
       </c>
     </row>
@@ -4517,7 +4500,7 @@
         <v>186</v>
       </c>
       <c r="G22" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>mklink /d "C:\root" "%USERPROFILE%\_root"</v>
       </c>
     </row>
@@ -4541,7 +4524,7 @@
         <v>169</v>
       </c>
       <c r="G23" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>powershell "$s=(New-Object -COM WScript.Shell).CreateShortcut('%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup\PopupTimeSignal.vbs.lnk');$s.TargetPath='C:\codes\vbs\tools\win\other\PopupTimeSignal.vbs';$s.Save()"</v>
       </c>
     </row>
@@ -4565,7 +4548,7 @@
         <v>171</v>
       </c>
       <c r="G24" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>powershell "$s=(New-Object -COM WScript.Shell).CreateShortcut('%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\100_【Doc】GVim (&amp;V).lnk');$s.TargetPath='C:\prg_exe\Vim\gvim.exe';$s.Save()"</v>
       </c>
     </row>
@@ -4589,7 +4572,7 @@
         <v>172</v>
       </c>
       <c r="G25" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>powershell "$s=(New-Object -COM WScript.Shell).CreateShortcut('%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\101_【Doc】秀丸 (&amp;H).lnk');$s.TargetPath='C:\prg_exe\Hidemaru\Hidemaru.exe';$s.Save()"</v>
       </c>
     </row>
@@ -4613,7 +4596,7 @@
         <v>182</v>
       </c>
       <c r="G26" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>powershell "$s=(New-Object -COM WScript.Shell).CreateShortcut('%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\120_【Doc】Excel (&amp;E).lnk');$s.TargetPath='C:\Program Files (x86)\Microsoft Office\root\Office16\EXCEL.EXE';$s.Save()"</v>
       </c>
     </row>
@@ -4637,7 +4620,7 @@
         <v>174</v>
       </c>
       <c r="G27" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>powershell "$s=(New-Object -COM WScript.Shell).CreateShortcut('%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\123_【Doc】Word.lnk');$s.TargetPath='C:\Program Files (x86)\Microsoft Office\root\Office16\WINWORD.EXE';$s.Save()"</v>
       </c>
     </row>
@@ -4661,7 +4644,7 @@
         <v>175</v>
       </c>
       <c r="G28" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>powershell "$s=(New-Object -COM WScript.Shell).CreateShortcut('%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\122_【Doc】Visio.lnk');$s.TargetPath='C:\Program Files (x86)\Microsoft Office\root\Office16\VISIO.EXE';$s.Save()"</v>
       </c>
     </row>
@@ -4685,7 +4668,7 @@
         <v>173</v>
       </c>
       <c r="G29" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>powershell "$s=(New-Object -COM WScript.Shell).CreateShortcut('%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\110_【Doc】WinMerge.lnk');$s.TargetPath='C:\prg_exe\WinMerge\WinMergeU.exe';$s.Save()"</v>
       </c>
     </row>
@@ -4697,7 +4680,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="16"/>
       <c r="G30" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4709,7 +4692,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="16"/>
       <c r="G31" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4721,7 +4704,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
       <c r="G32" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4733,7 +4716,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="16"/>
       <c r="G33" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4745,7 +4728,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
       <c r="G34" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4757,7 +4740,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="16"/>
       <c r="G35" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4769,7 +4752,7 @@
       <c r="E36" s="16"/>
       <c r="F36" s="16"/>
       <c r="G36" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
